--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999756759596345</v>
+        <v>0.9999589069136334</v>
       </c>
       <c r="E2">
-        <v>0.9999756759596345</v>
+        <v>0.9999589069136334</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,13 +458,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4269060665994333</v>
+        <v>0.9999989610682003</v>
       </c>
       <c r="E3">
-        <v>0.4269060665994333</v>
+        <v>0.9999989610682003</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9999999999998319</v>
+        <v>0.9999999999999667</v>
       </c>
       <c r="E4">
-        <v>1.680877659282487E-13</v>
+        <v>3.33066907387547E-14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,13 +486,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9300269492573661</v>
+        <v>0.0003343057064040079</v>
       </c>
       <c r="E5">
-        <v>0.06997305074263394</v>
+        <v>0.999665694293596</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,13 +500,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4040170517791287</v>
+        <v>0.6791890421223865</v>
       </c>
       <c r="E6">
-        <v>0.5959829482208713</v>
+        <v>0.3208109578776135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -531,16 +531,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01725722057193297</v>
+        <v>0.003856858119883094</v>
       </c>
       <c r="E8">
-        <v>0.982742779428067</v>
+        <v>0.9961431418801169</v>
       </c>
       <c r="F8">
-        <v>2.3170166015625</v>
+        <v>5.403600215911865</v>
       </c>
       <c r="G8">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
